--- a/1.xlsx
+++ b/1.xlsx
@@ -396,12 +396,12 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>18年签单保费</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -464,24 +464,18 @@
           <t>2016-08-02</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I2" t="n">
+        <v>145.575407</v>
+      </c>
+      <c r="J2" t="n">
+        <v>210.995419</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.3100541817924491</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -497,7 +491,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -534,24 +528,12 @@
           <t>2018-03-01</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级渠道经理中2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -567,7 +549,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -600,24 +582,12 @@
           <t>2007-11-25</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级团队经理D级</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -633,7 +603,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -666,24 +636,12 @@
           <t>2013-10-01</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>高级客户经理E级</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -699,7 +657,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -736,24 +694,12 @@
           <t>2016-03-11</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>高级客户经理D级</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -769,7 +715,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -806,24 +752,12 @@
           <t>2019-05-14</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级团队经理E级</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -839,7 +773,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -876,24 +810,12 @@
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -909,7 +831,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -946,24 +868,12 @@
           <t>2019-05-17</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -979,7 +889,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1012,24 +922,12 @@
           <t>2010-10-08</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1045,7 +943,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1078,24 +976,12 @@
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1111,7 +997,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1148,24 +1034,12 @@
           <t>2018-12-01</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1181,7 +1055,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1214,24 +1088,12 @@
           <t>2013-12-01</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级团队经理E级</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1247,7 +1109,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1284,24 +1146,12 @@
           <t>2016-07-12</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1317,7 +1167,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1354,24 +1204,12 @@
           <t>2016-07-12</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1387,7 +1225,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1424,24 +1262,12 @@
           <t>2018-11-06</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1457,7 +1283,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1490,24 +1316,18 @@
           <t>2010-08-01</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I17" t="n">
+        <v>716.9472389999997</v>
+      </c>
+      <c r="J17" t="n">
+        <v>569.207383</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2595536537515355</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1523,7 +1343,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1556,24 +1376,12 @@
           <t>2015-12-07</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1589,7 +1397,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1622,24 +1430,12 @@
           <t>2010-10-09</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1655,7 +1451,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1688,24 +1484,12 @@
           <t>2014-02-15</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1721,7 +1505,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1758,24 +1542,12 @@
           <t>2016-04-26</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1791,7 +1563,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1828,24 +1600,12 @@
           <t>2017-03-14</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1861,7 +1621,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1898,24 +1658,12 @@
           <t>2017-06-05</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1931,7 +1679,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1968,24 +1716,12 @@
           <t>2018-01-15</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2001,7 +1737,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2038,24 +1774,12 @@
           <t>2018-09-01</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2071,7 +1795,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2104,24 +1828,12 @@
           <t>2007-11-25</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级团队经理D级</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2137,7 +1849,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2170,24 +1882,12 @@
           <t>2007-11-25</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2203,7 +1903,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2236,24 +1936,12 @@
           <t>2009-03-04</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2269,7 +1957,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2302,24 +1990,12 @@
           <t>2009-04-13</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2335,7 +2011,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2372,24 +2048,14 @@
           <t>2018-08-10</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I30" t="n">
+        <v>114.274149</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2405,7 +2071,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2438,24 +2104,12 @@
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2471,7 +2125,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2508,24 +2162,12 @@
           <t>2017-03-01</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2541,7 +2183,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2578,24 +2220,12 @@
           <t>2018-12-01</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2611,7 +2241,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2648,24 +2278,12 @@
           <t>2018-12-01</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2681,7 +2299,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2718,24 +2336,12 @@
           <t>2019-04-16</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2751,7 +2357,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2784,24 +2390,12 @@
           <t>2014-07-01</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理E级</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2817,7 +2411,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2854,24 +2448,12 @@
           <t>2017-07-07</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2887,7 +2469,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2924,24 +2506,18 @@
           <t>2017-08-01</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I38" t="n">
+        <v>147.573545</v>
+      </c>
+      <c r="J38" t="n">
+        <v>66.066129</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.233724712401417</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2957,7 +2533,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2994,24 +2570,12 @@
           <t>2018-10-08</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3027,7 +2591,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3064,24 +2628,12 @@
           <t>2016-04-26</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3097,7 +2649,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3134,24 +2686,18 @@
           <t>2015-08-17</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I41" t="n">
+        <v>237.9791140000001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>186.719011</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2745307118191627</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3167,7 +2713,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3204,24 +2750,12 @@
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3237,7 +2771,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3274,24 +2808,12 @@
           <t>2019-03-18</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3307,7 +2829,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3344,24 +2866,12 @@
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3377,7 +2887,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3414,24 +2924,12 @@
           <t>2016-01-29</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理D级</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3447,7 +2945,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3484,24 +2982,18 @@
           <t>2016-08-11</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I46" t="n">
+        <v>158.865019</v>
+      </c>
+      <c r="J46" t="n">
+        <v>103.681111</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5322464956996844</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3517,7 +3009,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3554,24 +3046,12 @@
           <t>2017-09-13</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3587,7 +3067,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3624,24 +3104,12 @@
           <t>2018-03-19</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3657,7 +3125,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3694,24 +3162,12 @@
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3727,7 +3183,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3760,24 +3216,18 @@
           <t>2013-08-01</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I50" t="n">
+        <v>634.9162359999996</v>
+      </c>
+      <c r="J50" t="n">
+        <v>619.3497070000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.02513366652807592</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3793,7 +3243,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3826,24 +3276,12 @@
           <t>2013-06-06</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3859,7 +3297,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3896,24 +3334,12 @@
           <t>2015-11-16</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3929,7 +3355,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3966,24 +3392,12 @@
           <t>2015-12-01</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3999,7 +3413,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4036,24 +3450,12 @@
           <t>2016-11-02</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4069,7 +3471,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4106,24 +3508,12 @@
           <t>2017-02-15</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4139,7 +3529,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4176,24 +3566,12 @@
           <t>2017-05-23</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4209,7 +3587,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4242,24 +3620,12 @@
           <t>2014-02-01</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级团队经理D级</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4275,7 +3641,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4308,24 +3674,12 @@
           <t>2015-05-01</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4341,7 +3695,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4378,24 +3732,18 @@
           <t>2015-08-17</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I59" t="n">
+        <v>202.397319</v>
+      </c>
+      <c r="J59" t="n">
+        <v>193.864146</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.04401625146302202</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4411,7 +3759,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4448,24 +3796,12 @@
           <t>2017-05-24</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4481,7 +3817,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4518,24 +3854,12 @@
           <t>2018-09-01</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4551,7 +3875,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4588,24 +3912,12 @@
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4621,7 +3933,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4658,24 +3970,12 @@
           <t>2017-02-15</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4691,7 +3991,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4728,24 +4028,12 @@
           <t>2019-01-22</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4761,7 +4049,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4798,24 +4086,18 @@
           <t>2017-08-11</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I65" t="n">
+        <v>119.386612</v>
+      </c>
+      <c r="J65" t="n">
+        <v>199.416646</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.4013207302664192</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4831,7 +4113,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4868,24 +4150,12 @@
           <t>2018-10-08</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4901,7 +4171,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4938,24 +4208,12 @@
           <t>2019-05-13</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4971,7 +4229,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5008,24 +4266,12 @@
           <t>2019-05-13</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5041,7 +4287,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5078,24 +4324,12 @@
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5111,7 +4345,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5148,24 +4382,12 @@
           <t>2018-07-04</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理D级</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5181,7 +4403,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5218,24 +4440,12 @@
           <t>2019-04-09</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5251,7 +4461,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5288,24 +4498,12 @@
           <t>2019-04-12</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5321,7 +4519,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5358,24 +4556,12 @@
           <t>2016-06-01</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5391,7 +4577,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5428,24 +4614,12 @@
           <t>2016-11-01</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5461,7 +4635,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5498,24 +4672,12 @@
           <t>2017-04-07</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5531,7 +4693,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5568,24 +4730,12 @@
           <t>2018-01-10</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5601,7 +4751,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5638,24 +4788,12 @@
           <t>2018-04-01</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5671,7 +4809,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -5708,24 +4846,12 @@
           <t>2019-05-05</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5741,7 +4867,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5778,24 +4904,12 @@
           <t>2019-08-01</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5811,7 +4925,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5848,24 +4962,12 @@
           <t>2018-09-01</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5881,7 +4983,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5918,24 +5020,12 @@
           <t>2018-09-01</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -5951,7 +5041,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5988,24 +5078,12 @@
           <t>2018-09-07</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6021,7 +5099,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6058,24 +5136,12 @@
           <t>2019-01-18</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6091,7 +5157,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6128,24 +5194,12 @@
           <t>2016-04-27</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理D级</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6161,7 +5215,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6198,24 +5252,12 @@
           <t>2016-11-01</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6231,7 +5273,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6268,24 +5310,12 @@
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6301,7 +5331,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6338,24 +5368,12 @@
           <t>2016-01-25</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6371,7 +5389,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -6408,24 +5426,12 @@
           <t>2016-01-20</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6441,7 +5447,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6478,24 +5484,12 @@
           <t>2018-07-01</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6511,7 +5505,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6548,24 +5542,12 @@
           <t>2018-11-19</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6581,7 +5563,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6618,24 +5600,18 @@
           <t>2016-08-16</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I91" t="n">
+        <v>113.209127</v>
+      </c>
+      <c r="J91" t="n">
+        <v>153.105923</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.2605829690860493</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6651,7 +5627,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6688,24 +5664,12 @@
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6721,7 +5685,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6758,24 +5722,12 @@
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6791,7 +5743,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -6824,24 +5776,12 @@
           <t>2014-05-14</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6857,7 +5797,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -6890,24 +5830,12 @@
           <t>2014-09-15</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -6923,7 +5851,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6960,24 +5888,12 @@
           <t>2016-01-26</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -6993,7 +5909,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -7030,24 +5946,12 @@
           <t>2016-06-01</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -7063,7 +5967,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -7100,24 +6004,12 @@
           <t>2017-05-15</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -7133,7 +6025,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -7170,24 +6062,12 @@
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -7203,7 +6083,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -7236,24 +6116,12 @@
           <t>2014-07-01</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -7269,7 +6137,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -7306,24 +6174,12 @@
           <t>2016-10-08</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7339,7 +6195,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -7376,24 +6232,12 @@
           <t>2019-06-01</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7409,7 +6253,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -7446,24 +6290,12 @@
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7479,7 +6311,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7516,24 +6348,12 @@
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7549,7 +6369,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7586,24 +6406,12 @@
           <t>2019-09-01</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7619,7 +6427,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7656,24 +6464,12 @@
           <t>2016-03-30</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -7689,7 +6485,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7726,24 +6522,12 @@
           <t>2017-03-10</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -7759,7 +6543,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7796,24 +6580,14 @@
           <t>2018-08-01</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I108" t="n">
+        <v>277.0139119999999</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7829,7 +6603,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7866,24 +6640,14 @@
           <t>2018-08-01</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I109" t="n">
+        <v>65.293497</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7899,7 +6663,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -7936,24 +6700,12 @@
           <t>2016-10-17</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理D级</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -7969,7 +6721,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -8006,24 +6758,12 @@
           <t>2017-12-05</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理C级</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -8039,7 +6779,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -8076,24 +6816,12 @@
           <t>2018-06-01</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -8109,7 +6837,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -8146,24 +6874,12 @@
           <t>2019-02-01</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -8179,7 +6895,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -8216,24 +6932,18 @@
           <t>2016-08-01</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I114" t="n">
+        <v>833.9912600000001</v>
+      </c>
+      <c r="J114" t="n">
+        <v>774.476712</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.07684485159832688</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级团队经理D级</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -8249,7 +6959,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -8286,24 +6996,12 @@
           <t>2015-12-10</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -8319,7 +7017,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -8356,24 +7054,12 @@
           <t>2017-11-01</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -8389,7 +7075,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -8426,24 +7112,12 @@
           <t>2017-11-01</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -8459,7 +7133,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -8496,24 +7170,12 @@
           <t>2015-12-08</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理E级</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -8529,7 +7191,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -8566,24 +7228,18 @@
           <t>2017-08-01</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I119" t="n">
+        <v>89.21602100000001</v>
+      </c>
+      <c r="J119" t="n">
+        <v>64.19451699999999</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.3897763418019022</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -8599,7 +7255,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -8636,24 +7292,12 @@
           <t>2018-06-01</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -8669,7 +7313,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -8702,24 +7346,12 @@
           <t>2015-06-01</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理C级</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -8735,7 +7367,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -8768,24 +7400,18 @@
           <t>2012-08-14</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I122" t="n">
+        <v>85.84777100000001</v>
+      </c>
+      <c r="J122" t="n">
+        <v>78.51634600000001</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.09337450573667794</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -8801,7 +7427,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -8838,24 +7464,12 @@
           <t>2016-04-25</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8871,7 +7485,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8908,24 +7522,12 @@
           <t>2016-04-25</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8941,7 +7543,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -8978,24 +7580,12 @@
           <t>2018-06-01</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -9011,7 +7601,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -9048,24 +7638,12 @@
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -9081,7 +7659,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -9118,24 +7696,14 @@
           <t>2018-08-01</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I127" t="n">
+        <v>90.42142499999997</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -9151,7 +7719,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -9188,24 +7756,12 @@
           <t>2019-02-01</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -9221,7 +7777,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -9258,24 +7814,12 @@
           <t>2019-03-05</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -9291,7 +7835,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -9324,24 +7868,12 @@
           <t>2012-06-19</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -9357,7 +7889,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -9390,24 +7922,12 @@
           <t>2015-06-01</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -9423,7 +7943,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -9460,24 +7980,12 @@
           <t>2016-09-29</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -9493,7 +8001,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -9530,24 +8038,12 @@
           <t>2018-03-13</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -9563,7 +8059,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -9596,24 +8092,12 @@
           <t>2007-07-02</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -9629,7 +8113,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -9666,24 +8150,12 @@
           <t>2016-06-24</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -9699,7 +8171,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -9732,24 +8204,12 @@
           <t>2013-10-01</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9765,7 +8225,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -9802,24 +8262,12 @@
           <t>2017-07-01</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -9835,7 +8283,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -9872,24 +8320,12 @@
           <t>2019-05-01</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -9905,7 +8341,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -9938,24 +8374,18 @@
           <t>2014-08-01</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I139" t="n">
+        <v>706.2817949999999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>824.990503</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-0.1438909994337233</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理C级</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -9971,7 +8401,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -10008,24 +8438,18 @@
           <t>2015-08-01</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I140" t="n">
+        <v>218.365155</v>
+      </c>
+      <c r="J140" t="n">
+        <v>323.416191</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-0.3248168735003127</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理A级</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -10041,7 +8465,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -10078,24 +8502,12 @@
           <t>2017-12-08</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -10111,7 +8523,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -10148,24 +8560,12 @@
           <t>2018-06-06</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -10181,7 +8581,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -10218,24 +8618,12 @@
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -10251,7 +8639,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -10288,24 +8676,12 @@
           <t>2019-06-01</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -10321,7 +8697,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -10358,24 +8734,12 @@
           <t>2019-06-01</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -10391,7 +8755,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -10428,24 +8792,12 @@
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -10461,7 +8813,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -10498,24 +8850,18 @@
           <t>2015-08-01</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I147" t="n">
+        <v>363.1938910000001</v>
+      </c>
+      <c r="J147" t="n">
+        <v>377.972133</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-0.0390987607544071</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理C级</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -10531,7 +8877,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -10568,24 +8914,12 @@
           <t>2016-03-16</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -10601,7 +8935,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -10638,24 +8972,12 @@
           <t>2016-01-29</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -10671,7 +8993,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -10708,24 +9030,12 @@
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -10741,7 +9051,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -10778,24 +9088,12 @@
           <t>2016-09-29</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -10811,7 +9109,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -10848,24 +9146,12 @@
           <t>2018-01-12</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -10881,7 +9167,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -10918,24 +9204,12 @@
           <t>2019-06-01</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -10951,7 +9225,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -10988,24 +9262,12 @@
           <t>2019-07-01</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -11021,7 +9283,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -11058,24 +9320,12 @@
           <t>2017-09-13</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -11091,7 +9341,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -11128,24 +9378,18 @@
           <t>2018-08-01</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I156" t="n">
+        <v>140.4148229999998</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.353795</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-397.8818750971602</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -11161,7 +9405,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -11198,24 +9442,12 @@
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -11231,7 +9463,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -11268,24 +9500,12 @@
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -11301,7 +9521,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -11338,24 +9558,12 @@
           <t>2019-04-01</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -11371,7 +9579,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -11408,24 +9616,12 @@
           <t>2017-10-01</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -11441,7 +9637,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -11478,24 +9674,18 @@
           <t>2017-08-01</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I161" t="n">
+        <v>187.024362</v>
+      </c>
+      <c r="J161" t="n">
+        <v>208.0683069999999</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-0.10113959835315</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -11511,7 +9701,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -11548,24 +9738,12 @@
           <t>2018-05-01</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -11581,7 +9759,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -11618,24 +9796,12 @@
           <t>2019-06-01</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -11651,7 +9817,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -11688,24 +9854,18 @@
           <t>2015-08-01</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
+      <c r="I164" t="n">
+        <v>480.0252880000002</v>
+      </c>
+      <c r="J164" t="n">
+        <v>433.8683229999999</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.1063847313877311</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级团队经理B级</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -11721,7 +9881,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -11758,24 +9918,12 @@
           <t>2015-12-21</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>高级客户经理E级</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -11791,7 +9939,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -11828,24 +9976,12 @@
           <t>2018-11-01</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -11861,7 +9997,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -11898,24 +10034,12 @@
           <t>2016-11-01</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -11931,7 +10055,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -11968,24 +10092,12 @@
           <t>2018-03-01</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -12001,7 +10113,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -12038,24 +10150,12 @@
           <t>2015-09-01</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -12071,7 +10171,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -12108,24 +10208,12 @@
           <t>2017-07-05</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -12141,7 +10229,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -12178,24 +10266,12 @@
           <t>2019-01-22</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -12211,7 +10287,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -12248,24 +10324,12 @@
           <t>2015-11-27</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -12281,7 +10345,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -12318,24 +10382,12 @@
           <t>2017-12-01</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -12351,7 +10403,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -12388,24 +10440,12 @@
           <t>2018-07-01</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -12421,7 +10461,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -12458,24 +10498,12 @@
           <t>2015-12-10</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -12491,7 +10519,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -12528,24 +10556,12 @@
           <t>2018-05-01</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -12561,7 +10577,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -12598,24 +10614,12 @@
           <t>2019-07-01</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>17年签单保费</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>18年签单保费</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>同比增长率</t>
-        </is>
-      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
-          <t>现任司龄工资</t>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
